--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_8_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_8_sawtooth_05_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.056994850123232e-08</v>
+        <v>1.124504489524725e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>1.488194981083912e-06</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.487099911747009e-12</v>
-      </c>
+        <v>4.029123701343451e-08</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.462168357257475</v>
+        <v>5.979361791161358</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.234486318200487, 7.689850396314464]</t>
+          <t>[3.965814563305347, 7.992909019017368]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.951744363237751e-06</v>
+        <v>9.938334377679325e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.903488726475501e-06</v>
+        <v>1.987666875535865e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.761052938949233</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.226474072814388, -1.2956318050840787]</t>
+          <t>[-1.9120003337163114, -1.1069475616252324]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.889422200449189e-13</v>
+        <v>7.65609797781508e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>9.778844400898379e-13</v>
+        <v>1.531219595563016e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>11.88459335415833</v>
+        <v>11.55894877224376</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.590289907098473, 13.178896801218194]</t>
+          <t>[10.291853369044826, 12.8260441754427]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.203203203203365</v>
+        <v>6.219819819819968</v>
       </c>
       <c r="X2" t="n">
-        <v>5.299499499499619</v>
+        <v>4.561201201201309</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.106906906907113</v>
+        <v>7.878438438438627</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.82000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002244147848957434</v>
+        <v>0.01175142647344285</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007690406397010916</v>
+        <v>0.0401060366353803</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.196972095806132</v>
+        <v>4.495017184662181</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.4973298418413492, 8.896614349770914]</t>
+          <t>[1.0116040804693966, 7.978430288854966]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.006147745732881127</v>
+        <v>0.01171211008495754</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006147745732881127</v>
+        <v>0.01171211008495754</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.792526803190928</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.5850006257180826, -2.0000529806637726]</t>
+          <t>[0.5597632555945777, 2.7233425805893505]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>5.718936435528121e-11</v>
+        <v>0.003128618108784176</v>
       </c>
       <c r="R3" t="n">
-        <v>5.718936435528121e-11</v>
+        <v>0.003128618108784176</v>
       </c>
       <c r="S3" t="n">
-        <v>11.47201055736196</v>
+        <v>12.73133883152051</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.447088844012274, 13.49693227071165]</t>
+          <t>[10.670840068125047, 14.791837594915966]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.14222222222228</v>
+        <v>16.45909909909913</v>
       </c>
       <c r="X3" t="n">
-        <v>7.264024024024067</v>
+        <v>12.62310310310313</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.0204204204205</v>
+        <v>20.29509509509514</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_8_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_8_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.124504489524725e-09</v>
+        <v>1.780313196864114e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>4.029123701343451e-08</v>
+        <v>8.340465898173634e-07</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.979361791161358</v>
+        <v>5.347802536560717</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.965814563305347, 7.992909019017368]</t>
+          <t>[3.36407244951132, 7.331532623610115]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.938334377679325e-09</v>
+        <v>1.799539086633217e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.987666875535865e-08</v>
+        <v>3.599078173266435e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.509473947670772</v>
+        <v>-1.42142130072331</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9120003337163114, -1.1069475616252324]</t>
+          <t>[-1.8742634850245414, -0.9685791164220783]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.65609797781508e-13</v>
+        <v>1.478601907578536e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.531219595563016e-12</v>
+        <v>2.957203815157072e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>11.55894877224376</v>
+        <v>11.6031265543916</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.291853369044826, 12.8260441754427]</t>
+          <t>[10.381484637977604, 12.824768470805598]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.219819819819968</v>
+        <v>5.875095095095237</v>
       </c>
       <c r="X2" t="n">
-        <v>4.561201201201309</v>
+        <v>4.003383383383479</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.878438438438627</v>
+        <v>7.746806806806994</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.28000000000004</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01175142647344285</v>
+        <v>0.001584516514748113</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0401060366353803</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.008909396992161521</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.885780586188048e-14</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.495017184662181</v>
+        <v>5.415258423742784</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.0116040804693966, 7.978430288854966]</t>
+          <t>[1.4965064982802332, 9.334010349205334]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.01171211008495754</v>
+        <v>0.00701559294258236</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01171211008495754</v>
+        <v>0.00701559294258236</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641552918091964</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5597632555945777, 2.7233425805893505]</t>
+          <t>[-0.11950002085726918, 1.2893423303021168]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.003128618108784176</v>
+        <v>0.103094128947911</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003128618108784176</v>
+        <v>0.103094128947911</v>
       </c>
       <c r="S3" t="n">
-        <v>12.73133883152051</v>
+        <v>11.41337295597148</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.670840068125047, 14.791837594915966]</t>
+          <t>[9.357068854394637, 13.469677057548328]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.45909909909913</v>
+        <v>19.95195195195195</v>
       </c>
       <c r="X3" t="n">
-        <v>12.62310310310313</v>
+        <v>17.48548548548549</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.29509509509514</v>
+        <v>22.41841841841842</v>
       </c>
     </row>
   </sheetData>
